--- a/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
+++ b/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
@@ -4,16 +4,16 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="gene-level-snv-consensus-annotated-mut-freq.jsonl.gz" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="variant-level-snv-consensus-annotated-mut-freq.jsonl.gz" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="gene-level-cnv-consensus-annotated-mut-freq.jsonl.gz" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="putative-oncogene-fused-gene-freq.jsonl.gz" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="putative-oncogene-fusion-freq.jsonl.gz" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="long_n_tpm_mean_sd_quantile_gene_wise_zscore.jsonl.gz" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="long_n_tpm_mean_sd_quantile_group_wise_zscore.jsonl.gz" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="SNV gene-level" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="SNV variant-level" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CNV gene-level" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Fusion gene-level" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Fusion fusion-level" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TPM stats gene-wise z-scores" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="TPM stats group-wise z-scores" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,83 +50,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -422,10 +354,10 @@
   <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1651,7 +1583,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -1664,10 +1596,10 @@
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3293,7 +3225,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3306,10 +3238,10 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4355,7 +4287,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4368,10 +4300,10 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5233,7 +5165,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5246,10 +5178,10 @@
   <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6667,7 +6599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -6680,10 +6612,10 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -7489,7 +7421,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -7502,10 +7434,10 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -8311,6 +8243,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
+++ b/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
@@ -380,7 +380,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RMTL</t>
+          <t>PMTL</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -1622,87 +1622,87 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RMTL</t>
+          <t>Variant ID hg38</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Protein change</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PMTL</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Disease</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>EFO</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>MONDO</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Variant ID hg38</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>dbSNP ID</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>VEP impact</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>SIFT impact</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>PolyPhen impact</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Variant classification</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Variant type</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Gene full name</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Protein RefSeq ID</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Gene Ensembl ID</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Protein Ensembl ID</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Protein change</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
@@ -1767,85 +1767,85 @@
           <t>HEXA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>chr15_72349245_G_T</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>p.L285M</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Neuroblastoma</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>EFO_0000621</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>MONDO_0005072</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>chr15_72349245_G_T</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>deleterious(0)</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>probably_damaging(0.985)</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>hexosaminidase subunit alpha</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>NP_000511.2,NP_001305754.1</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>ENSG00000213614</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>ENSP00000455114</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>p.L285M</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -1902,85 +1902,85 @@
           <t>WNT4</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>chr1_22129778_G_T</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>p.Q51K</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Neuroblastoma</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>EFO_0000621</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>MONDO_0005072</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>chr1_22129778_G_T</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>tolerated(0.92)</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>benign(0.003)</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Wnt family member 4</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>NP_110388.2</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>ENSG00000162552</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>ENSP00000290167</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>p.Q51K</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -2037,85 +2037,85 @@
           <t>PRPSAP1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>chr17_76344671_C_A</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>p.R97I</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Neuroblastoma</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>EFO_0000621</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>MONDO_0005072</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>chr17_76344671_C_A</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>tolerated(0.09)</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>possibly_damaging(0.708)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>phosphoribosyl pyrophosphate synthetase associated protein 1</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>NP_001317432.1,NP_001353165.1,NP_002757.2</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>ENSG00000161542</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>ENSP00000414624</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>p.R97I</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -2172,85 +2172,85 @@
           <t>ZNF334</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>chr20_46502227_T_C</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>p.H371R</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>PBTA</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ependymoma</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>EFO_1000028</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>MONDO_0016698</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>chr20_46502227_T_C</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>deleterious(0)</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>probably_damaging(0.986)</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>zinc finger protein 334</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>NP_001257426.1,NP_001340742.1,NP_001340743.1,NP_001340744.1,NP_001340745.1,NP_001340746.1,NP_001340747.1,NP_001340748.1,NP_001340749.1,NP_001340750.1,NP_001340751.1,NP_001340752.1,NP_001340753.1,NP_001340754.1,NP_001340755.1,NP_060572.3,NP_955473.1</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>ENSG00000198185</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>ENSP00000255129</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>p.H371R</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -2311,81 +2311,81 @@
           <t>MT-ND4</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chrM_10922_A_G</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>p.T55A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>PBTA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Schwannoma</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>EFO_0000693</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>MONDO_0002546</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>chrM_10922_A_G</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>tolerated_low_confidence(0.33)</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>benign(0.007)</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>NADH dehydrogenase subunit 4</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
         <is>
           <t>ENSG00000198886</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>ENSP00000354961</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>p.T55A</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -2442,77 +2442,77 @@
           <t>DNAI1</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>chr9_34506692_G_T</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>p.E381*</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Neuroblastoma</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>EFO_0000621</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>MONDO_0005072</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>chr9_34506692_G_T</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Nonsense_Mutation</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>dynein axonemal intermediate chain 1</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>NP_001268357.1,NP_036276.1</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>ENSG00000122735</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>ENSP00000480538</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>p.E381*</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -2565,85 +2565,85 @@
           <t>ZNF143</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>chr11_9512537_G_T</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>p.V489L</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>PBTA</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>High-grade glioma/astrocytoma</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>EFO_0005543</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>MONDO_0100342</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>chr11_9512537_G_T</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>tolerated(0.31)</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>possibly_damaging(0.785)</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>zinc finger protein 143</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>NP_001269585.1,NP_001269586.1,NP_003433.3</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>ENSG00000166478</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>ENSP00000379847</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>p.V489L</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -2700,85 +2700,85 @@
           <t>ZFAND4</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>chr10_45626424_G_T</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>p.H467N</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>all_cohorts</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Neuroblastoma</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>EFO_0000621</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>MONDO_0005072</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>chr10_45626424_G_T</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>tolerated(0.11)</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>benign(0.115)</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>zinc finger AN1-type containing 4</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>NP_001121796.1,NP_001269834.1,NP_001269835.1,NP_777550.2</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>ENSG00000172671</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>ENSP00000339484</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>p.H467N</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
@@ -2831,85 +2831,85 @@
           <t>OR2C1</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>chr16_3355948_G_T</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>p.G3V</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>all_cohorts</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Neuroblastoma</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>EFO_0000621</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>MONDO_0005072</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>chr16_3355948_G_T</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>tolerated(0.28)</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>benign(0)</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>olfactory receptor family 2 subfamily C member 1</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>NP_036500.2</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>ENSG00000168158</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>ENSP00000307726</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>p.G3V</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
@@ -2962,85 +2962,85 @@
           <t>RBM5</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>chr3_50109641_C_A</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>p.Q411K</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>TARGET</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Neuroblastoma</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>EFO_0000621</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>MONDO_0005072</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>chr3_50109641_C_A</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>novel</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>tolerated(0.09)</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>possibly_damaging(0.678)</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Missense_Mutation</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>SNP</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>RNA binding motif protein 5</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>NP_005769.1</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>ENSG00000003756</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>ENSP00000343054</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>p.Q411K</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
@@ -3095,87 +3095,87 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Variant_ID_hg38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Protein_change</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>RMTL</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Disease</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>EFO</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>MONDO</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Variant_ID_hg38</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>dbSNP_ID</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>VEP_impact</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>SIFT_impact</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>PolyPhen_impact</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Variant_classification</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>Variant_type</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Gene_full_name</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Protein_RefSeq_ID</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Gene_Ensembl_ID</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Protein_Ensembl_ID</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Protein_change</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>RMTL</t>
+          <t>PMTL</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -4341,7 +4341,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>RMTL</t>
+          <t>PMTL</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>RMTL</t>
+          <t>PMTL</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RMTL</t>
+          <t>PMTL</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>RMTL</t>
+          <t>PMTL</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">

--- a/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
+++ b/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
@@ -492,97 +492,97 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NMBR</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>AURKA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0005072</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>neuromedin B receptor</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>aurora kinase A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Kinase,Oncogene</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>NP_001311236.1,NP_001311237.1,NP_002502.2</t>
+          <t>NP_001310232.1,NP_001310233.1,NP_001310234.1,NP_003591.2,NP_940835.1,NP_940836.1,NP_940837.1,NP_940838.1,NP_940839.1</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ENSG00000135577</t>
+          <t>ENSG00000087586</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>ENSP00000258042</t>
+          <t>ENSP00000216911</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1/50</t>
+          <t>1/519</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.00%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1/30</t>
+          <t>0/455</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.33%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>1/21</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=NMBR</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=NMBR</t>
-        </is>
-      </c>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Oncogene</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -597,89 +597,105 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PROP1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>TGFB1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Ependymoma</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_1000028</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0016698</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PROP paired-like homeobox 1</t>
+          <t>transforming growth factor beta 1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>TranscriptionFactor</t>
+          <t>Oncogene,TumorSuppressorGene</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>NP_006252.4</t>
+          <t>NP_000651.3</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>ENSG00000175325</t>
+          <t>ENSG00000105329</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ENSP00000311290</t>
+          <t>ENSP00000221930</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1/793</t>
+          <t>2/71</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>2.82%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1/790</t>
+          <t>2/60</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>3.33%</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
+          <t>0/17</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_ependymoma&amp;Action=Submit&amp;gene_list=TGFB1</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_ependymoma&amp;Action=Submit&amp;gene_list=TGFB1</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -694,10 +710,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ZDHHC16</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>MSH6</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>PBTA</t>
@@ -705,84 +725,92 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>Diffuse midline glioma</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_1000026</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0006033</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>zinc finger DHHC-type palmitoyltransferase 16</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>mutS homolog 6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CosmicCensus,Oncogene</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>NP_001274732.1,NP_001274733.1,NP_115703.2,NP_932160.1,NP_932161.1,NP_932162.1,NP_932163.1</t>
+          <t>NP_000170.1,NP_001268421.1,NP_001268422.1,NP_001268423.1</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>ENSG00000171307</t>
+          <t>ENSG00000116062</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>ENSP00000377357</t>
+          <t>ENSP00000234420</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1/50</t>
+          <t>1/55</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.00%</t>
+          <t>1.82%</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0/30</t>
+          <t>1/49</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1/21</t>
+          <t>1/13</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4.76%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>TumorSuppressorGene</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=ZDHHC16</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_diffuse_midline_glioma&amp;Action=Submit&amp;gene_list=MSH6</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=ZDHHC16</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_diffuse_midline_glioma&amp;Action=Submit&amp;gene_list=MSH6</t>
         </is>
       </c>
     </row>
@@ -799,7 +827,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MPZL3</t>
+          <t>FBRS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -810,63 +838,63 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Diffuse midline glioma</t>
+          <t>Ependymoma</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EFO_1000026</t>
+          <t>EFO_1000028</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MONDO_0006033</t>
+          <t>MONDO_0016698</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>myelin protein zero like 3</t>
+          <t>fibrosin</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>NP_001273081.1,NP_938016.1</t>
+          <t>NP_001098549.2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>ENSG00000160588</t>
+          <t>ENSG00000156860</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ENSP00000278949</t>
+          <t>ENSP00000348489</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1/55</t>
+          <t>1/71</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.82%</t>
+          <t>1.41%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0/49</t>
+          <t>1/60</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0/13</t>
+          <t>0/17</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -882,12 +910,12 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_diffuse_midline_glioma&amp;Action=Submit&amp;gene_list=MPZL3</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_ependymoma&amp;Action=Submit&amp;gene_list=FBRS</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_diffuse_midline_glioma&amp;Action=Submit&amp;gene_list=MPZL3</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_ependymoma&amp;Action=Submit&amp;gene_list=FBRS</t>
         </is>
       </c>
     </row>
@@ -904,85 +932,101 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BCAR1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>SMARCD3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GMKF</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Low-grade glioma/astrocytoma</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0005543</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0016685</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>BCAR1 scaffold protein, Cas family member</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily d, member 3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>NP_001164185.1,NP_001164186.1,NP_001164187.1,NP_001164188.1,NP_001164189.1,NP_001164190.1,NP_001164191.1,NP_001164192.1,NP_055382.2</t>
+          <t>NP_001003801.1,NP_001003802.1,NP_003069.2</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>ENSG00000050820</t>
+          <t>ENSG00000082014</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>ENSP00000391669</t>
+          <t>ENSP00000262188</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1/336</t>
+          <t>2/266</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1/335</t>
+          <t>2/226</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.30%</t>
+          <t>0.88%</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>0/51</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_low-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=SMARCD3</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_low-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=SMARCD3</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -993,85 +1037,105 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GLE1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>EPHA2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Meningioma</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0003851</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0016642</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>GLE1 RNA export mediator</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>EPH receptor A2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Kinase,Oncogene,TumorSuppressorGene</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>NP_001003722.1,NP_001490.1</t>
+          <t>NP_001316019.1,NP_004422.2</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ENSG00000119392</t>
+          <t>ENSG00000142627</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ENSP00000308622</t>
+          <t>ENSP00000351209</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>7/519</t>
+          <t>1/25</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>4.00%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>7/455</t>
+          <t>0/17</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.54%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_meningioma&amp;Action=Submit&amp;gene_list=EPHA2</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_meningioma&amp;Action=Submit&amp;gene_list=EPHA2</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1082,97 +1146,97 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GOLGA3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>BRAF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Diffuse midline glioma</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>EFO_1000026</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MONDO_0006033</t>
+          <t>MONDO_0005072</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>golgin A3</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>B-Raf proto-oncogene, serine/threonine kinase</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CosmicCensus,Kinase,Oncogene</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>NP_001166028.1,NP_001376612.1,NP_001376613.1,NP_001376614.1,NP_001376615.1,NP_001376616.1,NP_001376617.1,NP_001376618.1,NP_005886.2</t>
+          <t>NP_001341538.1,NP_001361173.1,NP_001361187.1,NP_001365396.1,NP_001365397.1,NP_001365398.1,NP_001365399.1,NP_001365400.1,NP_001365401.1,NP_001365402.1,NP_001365403.1,NP_001365404.1,NP_004324.2</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>ENSG00000090615</t>
+          <t>ENSG00000157764</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ENSP00000204726</t>
+          <t>ENSP00000493543</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2/55</t>
+          <t>7/519</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>1.35%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0/49</t>
+          <t>7/455</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1.54%</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0/13</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_diffuse_midline_glioma&amp;Action=Submit&amp;gene_list=GOLGA3</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_diffuse_midline_glioma&amp;Action=Submit&amp;gene_list=GOLGA3</t>
-        </is>
-      </c>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Oncogene</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1183,7 +1247,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MESD</t>
+          <t>LITAF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1209,53 +1273,57 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>mesoderm development LRP chaperone</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>lipopolysaccharide induced TNF factor</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TumorSuppressorGene</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>NP_055969.1</t>
+          <t>NP_001129944.1,NP_001129945.1,NP_004853.2</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>ENSG00000117899</t>
+          <t>ENSG00000189067</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>ENSP00000261758</t>
+          <t>ENSP00000459533</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2/50</t>
+          <t>1/50</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4.00%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2/30</t>
+          <t>1/30</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>6.67%</t>
+          <t>3.33%</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>1/21</t>
+          <t>0/21</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>4.76%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1266,12 +1334,12 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=MESD</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=LITAF</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=MESD</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_high-grade_glioma_astrocytoma&amp;Action=Submit&amp;gene_list=LITAF</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1352,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VTI1B</t>
+          <t>TTF2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1295,63 +1363,63 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Medulloblastoma</t>
+          <t>Ependymoma</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>EFO_0002939</t>
+          <t>EFO_1000028</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MONDO_0007959</t>
+          <t>MONDO_0016698</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>vesicle transport through interaction with t-SNAREs 1B</t>
+          <t>transcription termination factor 2</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>NP_006361.1</t>
+          <t>NP_003585.3</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>ENSG00000100568</t>
+          <t>ENSG00000116830</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>ENSP00000450731</t>
+          <t>ENSP00000358478</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1/97</t>
+          <t>1/71</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.41%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1/97</t>
+          <t>1/60</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.03%</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0/5</t>
+          <t>0/17</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1367,12 +1435,12 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_medulloblastoma&amp;Action=Submit&amp;gene_list=VTI1B</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/oncoprint?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_ependymoma&amp;Action=Submit&amp;gene_list=TTF2</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_medulloblastoma&amp;Action=Submit&amp;gene_list=VTI1B</t>
+          <t>https://pedcbioportal.kidsfirstdrc.org/results/mutations?cancer_study_list=ped_opentargets_2021&amp;case_set_id=ped_opentargets_2021_pbta_ependymoma&amp;Action=Submit&amp;gene_list=TTF2</t>
         </is>
       </c>
     </row>
@@ -1385,10 +1453,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CBLB</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>SYT1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>TARGET</t>
@@ -1411,47 +1483,43 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Cbl proto-oncogene B</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>CosmicCensus,Oncogene</t>
-        </is>
-      </c>
+          <t>synaptotagmin 1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>NP_001308715.1,NP_001308717.1,NP_001308718.1,NP_001308719.1,NP_001308720.1,NP_001308722.1,NP_001308723.1,NP_001308724.1,NP_001308725.1,NP_001308726.1,NP_001308727.1,NP_001308728.1,NP_001308735.1,NP_001308736.1,NP_001308737.1,NP_001308740.1,NP_001308742.1,NP_001308745.1,NP_001308749.1,NP_001308751.1,NP_733762.2</t>
+          <t>NP_001129277.1,NP_001129278.1,NP_001278830.1,NP_005630.1</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>ENSG00000114423</t>
+          <t>ENSG00000067715</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ENSP00000264122</t>
+          <t>ENSP00000261205</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>10/519</t>
+          <t>3/519</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>0.58%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>10/455</t>
+          <t>3/455</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2.20%</t>
+          <t>0.66%</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -1462,7 +1530,7 @@
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1764,23 +1832,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HEXA</t>
+          <t>CDK4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>chr15_72349245_G_T</t>
+          <t>chr12_57751713_G_T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>p.L285M</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>p.A2D</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1810,12 +1882,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>deleterious(0)</t>
+          <t>tolerated(0.08)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>probably_damaging(0.985)</t>
+          <t>benign(0)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -1830,42 +1902,42 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>hexosaminidase subunit alpha</t>
+          <t>cyclin dependent kinase 4</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>NP_000511.2,NP_001305754.1</t>
+          <t>NP_000066.1</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>ENSG00000213614</t>
+          <t>ENSG00000135446</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>ENSP00000455114</t>
+          <t>ENSP00000257904</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1/519</t>
+          <t>1/793</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0/455</t>
+          <t>1/790</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1881,10 +1953,14 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Oncogene</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1899,38 +1975,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WNT4</t>
+          <t>PSMC5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>chr1_22129778_G_T</t>
+          <t>chr17_63831748_T_C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>p.Q51K</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>p.Y369H</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>High-grade glioma/astrocytoma</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0005543</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0100342</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1945,12 +2025,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>tolerated(0.92)</t>
+          <t>deleterious(0)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>benign(0.003)</t>
+          <t>possibly_damaging(0.497)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1965,50 +2045,54 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Wnt family member 4</t>
+          <t>proteasome 26S subunit, ATPase 5</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>NP_110388.2</t>
+          <t>NP_001186092.1,NP_002796.4</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>ENSG00000162552</t>
+          <t>ENSG00000087191</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>ENSP00000290167</t>
+          <t>ENSP00000310572</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1/519</t>
+          <t>1/50</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1/455</t>
+          <t>1/30</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>3.33%</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+          <t>0/21</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>N</t>
@@ -2034,38 +2118,42 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRPSAP1</t>
+          <t>BIRC2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>chr17_76344671_C_A</t>
+          <t>chr11_102349967_A_G</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>p.R97I</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>p.K38R</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>High-grade glioma/astrocytoma</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0005543</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0100342</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2080,12 +2168,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>tolerated(0.09)</t>
+          <t>tolerated(0.08)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>possibly_damaging(0.708)</t>
+          <t>benign(0.164)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -2100,50 +2188,54 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>phosphoribosyl pyrophosphate synthetase associated protein 1</t>
+          <t>baculoviral IAP repeat containing 2</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>NP_001317432.1,NP_001353165.1,NP_002757.2</t>
+          <t>NP_001157.1,NP_001243092.1,NP_001243095.1</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>ENSG00000161542</t>
+          <t>ENSG00000110330</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>ENSP00000414624</t>
+          <t>ENSP00000477613</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1/519</t>
+          <t>1/50</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1/455</t>
+          <t>1/30</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>3.33%</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr"/>
+          <t>0/21</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>N</t>
@@ -2169,20 +2261,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ZNF334</t>
+          <t>PARP14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>chr20_46502227_T_C</t>
+          <t>chr3_122695543_C_A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>p.H371R</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>p.A239D</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>PBTA</t>
@@ -2190,17 +2286,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ependymoma</t>
+          <t>High-grade glioma/astrocytoma</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>EFO_1000028</t>
+          <t>EFO_0005543</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>MONDO_0016698</t>
+          <t>MONDO_0100342</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -2220,7 +2316,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>probably_damaging(0.986)</t>
+          <t>benign(0.175)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -2235,52 +2331,52 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>zinc finger protein 334</t>
+          <t>poly(ADP-ribose) polymerase family member 14</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>NP_001257426.1,NP_001340742.1,NP_001340743.1,NP_001340744.1,NP_001340745.1,NP_001340746.1,NP_001340747.1,NP_001340748.1,NP_001340749.1,NP_001340750.1,NP_001340751.1,NP_001340752.1,NP_001340753.1,NP_001340754.1,NP_001340755.1,NP_060572.3,NP_955473.1</t>
+          <t>NP_060024.2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>ENSG00000198185</t>
+          <t>ENSG00000173193</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>ENSP00000255129</t>
+          <t>ENSP00000418194</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1/71</t>
+          <t>1/50</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.41%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0/60</t>
+          <t>1/30</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>3.33%</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0/21</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>1/17</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>5.88%</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -2308,38 +2404,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MT-ND4</t>
+          <t>APLNR</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>chrM_10922_A_G</t>
+          <t>chr11_57236040_G_T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>p.T55A</t>
+          <t>p.S322Y</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schwannoma</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EFO_0000693</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MONDO_0002546</t>
+          <t>MONDO_0005072</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -2354,12 +2450,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>tolerated_low_confidence(0.33)</t>
+          <t>tolerated(0.12)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>benign(0.007)</t>
+          <t>benign(0.341)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -2374,50 +2470,50 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>NADH dehydrogenase subunit 4</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+          <t>apelin receptor</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>NP_005152.1</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>ENSG00000198886</t>
+          <t>ENSG00000134817</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>ENSP00000354961</t>
+          <t>ENSP00000475344</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1/14</t>
+          <t>1/519</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>0/13</t>
+          <t>1/455</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1/2</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr">
         <is>
           <t>N</t>
@@ -2425,10 +2521,14 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Oncogene,TumorSuppressorGene</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -2439,20 +2539,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DNAI1</t>
+          <t>CXCR4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>chr9_34506692_G_T</t>
+          <t>chr2_136115647_C_A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>p.E381*</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>p.W98L</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>TARGET</t>
@@ -2480,14 +2584,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>deleterious(0)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>probably_damaging(1)</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Nonsense_Mutation</t>
+          <t>Missense_Mutation</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -2497,22 +2609,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>dynein axonemal intermediate chain 1</t>
+          <t>C-X-C motif chemokine receptor 4</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>NP_001268357.1,NP_036276.1</t>
+          <t>NP_001008540.1,NP_001334985.1,NP_001334988.1,NP_001334989.1,NP_003458.1</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>ENSG00000122735</t>
+          <t>ENSG00000121966</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>ENSP00000480538</t>
+          <t>ENSP00000386884</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -2548,10 +2660,14 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Oncogene</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -2562,38 +2678,42 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZNF143</t>
+          <t>HDAC6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>chr11_9512537_G_T</t>
+          <t>chrX_48818378_C_A</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>p.V489L</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>p.A718D</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0005072</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2608,12 +2728,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>tolerated(0.31)</t>
+          <t>deleterious(0)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>possibly_damaging(0.785)</t>
+          <t>probably_damaging(0.987)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2628,54 +2748,50 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>zinc finger protein 143</t>
+          <t>histone deacetylase 6</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>NP_001269585.1,NP_001269586.1,NP_003433.3</t>
+          <t>NP_001308154.1,NP_001308155.1,NP_001308156.1,NP_001308157.1,NP_001308158.1,NP_001308159.1,NP_001308160.1,NP_006035.2</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>ENSG00000166478</t>
+          <t>ENSG00000094631</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>ENSP00000379847</t>
+          <t>ENSP00000334061</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1/50</t>
+          <t>1/519</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2.00%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1/30</t>
+          <t>1/455</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>3.33%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr">
         <is>
           <t>N</t>
@@ -2697,23 +2813,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ZFAND4</t>
+          <t>SAMD8</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>chr10_45626424_G_T</t>
+          <t>chr10_75150810_G_T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>p.H467N</t>
+          <t>p.M94I</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2743,12 +2859,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>tolerated(0.11)</t>
+          <t>tolerated(0.5)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>benign(0.115)</t>
+          <t>benign(0)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2763,42 +2879,42 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>zinc finger AN1-type containing 4</t>
+          <t>sterile alpha motif domain containing 8</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>NP_001121796.1,NP_001269834.1,NP_001269835.1,NP_777550.2</t>
+          <t>NP_001167627.1,NP_653261.1</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>ENSG00000172671</t>
+          <t>ENSG00000156671</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>ENSP00000339484</t>
+          <t>ENSP00000438042</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1/793</t>
+          <t>1/519</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1/790</t>
+          <t>1/455</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -2828,38 +2944,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OR2C1</t>
+          <t>XPO1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>chr16_3355948_G_T</t>
+          <t>chr2_61488725_C_A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>p.G3V</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>p.S690I</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>High-grade glioma/astrocytoma</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0005543</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0100342</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2874,12 +2994,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>tolerated(0.28)</t>
+          <t>deleterious(0)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>benign(0)</t>
+          <t>possibly_damaging(0.649)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2894,50 +3014,54 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>olfactory receptor family 2 subfamily C member 1</t>
+          <t>exportin 1</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>NP_036500.2</t>
+          <t>NP_003391.1</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>ENSG00000168158</t>
+          <t>ENSG00000082898</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>ENSP00000307726</t>
+          <t>ENSP00000384863</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1/793</t>
+          <t>1/50</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>2.00%</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1/790</t>
+          <t>1/30</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>3.33%</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr"/>
+          <t>0/21</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>N</t>
@@ -2945,10 +3069,14 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Oncogene</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -2959,23 +3087,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RBM5</t>
+          <t>KIF2C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>chr3_50109641_C_A</t>
+          <t>chr1_44747435_C_A</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>p.Q411K</t>
+          <t>p.P73T</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3005,12 +3133,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>tolerated(0.09)</t>
+          <t>deleterious(0.04)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>possibly_damaging(0.678)</t>
+          <t>benign(0.009)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -3025,42 +3153,42 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>RNA binding motif protein 5</t>
+          <t>kinesin family member 2C</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>NP_005769.1</t>
+          <t>NP_001284584.1,NP_001284585.1,NP_001284586.1,NP_006836.2</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>ENSG00000003756</t>
+          <t>ENSG00000142945</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>ENSP00000343054</t>
+          <t>ENSP00000361298</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2/519</t>
+          <t>1/793</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2/455</t>
+          <t>1/790</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -3361,12 +3489,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAMTOR2</t>
+          <t>SLC15A1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENSG00000116586</t>
+          <t>ENSG00000088386</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -3382,17 +3510,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ependymoma</t>
+          <t>Neurofibroma/Plexiform</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1/51</t>
+          <t>1/7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1.96%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -3403,17 +3531,13 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1/12</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>8.33%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>late endosomal/lysosomal adaptor, MAPK and MTOR activator 2</t>
+          <t>solute carrier family 15 member 1</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
@@ -3425,12 +3549,12 @@
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
-          <t>EFO_1000028</t>
+          <t>EFO_0000658</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>MONDO_0016698</t>
+          <t>MONDO_0003304</t>
         </is>
       </c>
     </row>
@@ -3447,17 +3571,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ESR2</t>
+          <t>PARP4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENSG00000140009</t>
+          <t>ENSG00000102699</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -3468,47 +3592,43 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>Choroid plexus papilloma</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10/45</t>
+          <t>1/10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>22.22%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5/27</t>
+          <t>1/9</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>18.52%</t>
+          <t>11.11%</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2/19</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>10.53%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>estrogen receptor 2</t>
+          <t>poly(ADP-ribose) polymerase family member 4</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Non-Relevant Molecular Target (RMTL version 1.0)</t>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -3519,12 +3639,12 @@
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_1000177</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0009837</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3661,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>RFNG</t>
+          <t>NAT8B</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENSG00000169733</t>
+          <t>ENSG00000204872</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3557,43 +3677,47 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Diffuse midline glioma</t>
+          <t>Acute Myeloid Leukemia</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/54</t>
+          <t>10/16</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20.37%</t>
+          <t>62.50%</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>7/45</t>
+          <t>6/14</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.56%</t>
+          <t>42.86%</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>4/14</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>28.57%</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>RFNG O-fucosylpeptide 3-beta-N-acetylglucosaminyltransferase</t>
+          <t>N-acetyltransferase 8B (putative, gene/pseudogene)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
@@ -3605,12 +3729,12 @@
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
-          <t>EFO_1000026</t>
+          <t>EFO_0000222</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>MONDO_0006033</t>
+          <t>MONDO_0018874</t>
         </is>
       </c>
     </row>
@@ -3627,48 +3751,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PTPDC1</t>
+          <t>MLLT10</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENSG00000158079</t>
+          <t>ENSG00000078403</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Diffuse midline glioma</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>102/414</t>
+          <t>1/54</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>24.64%</t>
+          <t>1.85%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>93/410</t>
+          <t>1/45</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>22.68%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -3679,24 +3803,32 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>protein tyrosine phosphatase domain containing 1</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr"/>
+          <t>MLLT10 histone lysine methyltransferase DOT1L cofactor</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Oncogene</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_1000026</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0006033</t>
         </is>
       </c>
     </row>
@@ -3713,17 +3845,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DCTN3</t>
+          <t>HDAC10</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENSG00000137100</t>
+          <t>ENSG00000100429</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -3734,17 +3866,17 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Dysembryoplastic neuroepithelial tumor</t>
+          <t>Ewing sarcoma</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1/14</t>
+          <t>1/7</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7.14%</t>
+          <t>14.29%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3755,20 +3887,20 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1/5</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>dynactin subunit 3</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr"/>
+          <t>histone deacetylase 10</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>N</t>
@@ -3777,12 +3909,12 @@
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
-          <t>EFO_0005551</t>
+          <t>EFO_0000174</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>MONDO_0005505</t>
+          <t>MONDO_0012817</t>
         </is>
       </c>
     </row>
@@ -3795,17 +3927,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TLR1</t>
+          <t>TNFSF10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENSG00000174125</t>
+          <t>ENSG00000121858</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>amplification</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -3816,37 +3948,49 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>Low-grade glioma/astrocytoma</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1/45</t>
+          <t>2/179</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>1.12%</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>1/151</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.66%</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>1/33</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>3.03%</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>toll like receptor 1</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr"/>
+          <t>TNF superfamily member 10</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>N</t>
@@ -3860,7 +4004,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0016685</t>
         </is>
       </c>
     </row>
@@ -3873,46 +4017,50 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZNF416</t>
+          <t>CD276</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENSG00000083817</t>
+          <t>ENSG00000103855</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gain</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1/45</t>
+          <t>115/414</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+          <t>111/410</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>27.07%</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>0/0</t>
@@ -3921,24 +4069,32 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>zinc finger protein 416</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr"/>
+          <t>CD276 molecule</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Oncogene</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0005072</t>
         </is>
       </c>
     </row>
@@ -3951,12 +4107,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MIR6850</t>
+          <t>ZNF784</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENSG00000283764</t>
+          <t>ENSG00000179922</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -3967,32 +4123,32 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Ependymoma</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>7/222</t>
+          <t>1/51</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>1.96%</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>7/210</t>
+          <t>1/42</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3.33%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -4003,7 +4159,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>microRNA 6850</t>
+          <t>zinc finger protein 784</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
@@ -4015,12 +4171,12 @@
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_1000028</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0016698</t>
         </is>
       </c>
     </row>
@@ -4033,48 +4189,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ST8SIA1</t>
+          <t>BIRC3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENSG00000111728</t>
+          <t>ENSG00000023445</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>neutral</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Diffuse midline glioma</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>90/222</t>
+          <t>15/54</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>40.54%</t>
+          <t>27.78%</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>87/210</t>
+          <t>8/45</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>41.43%</t>
+          <t>17.78%</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -4085,24 +4241,28 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>ST8 alpha-N-acetyl-neuraminide alpha-2,8-sialyltransferase 1</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
+          <t>baculoviral IAP repeat containing 3</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_1000026</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0006033</t>
         </is>
       </c>
     </row>
@@ -4115,12 +4275,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MIR376A1</t>
+          <t>WEE1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ENSG00000283588</t>
+          <t>ENSG00000166483</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -4131,7 +4291,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4141,22 +4301,22 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4/222</t>
+          <t>28/414</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>4/210</t>
+          <t>27/410</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.90%</t>
+          <t>6.59%</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -4167,10 +4327,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>microRNA 376a-1</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr"/>
+          <t>WEE1 G2 checkpoint kinase</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>N</t>
@@ -4398,28 +4562,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ZNF446</t>
+          <t>DDR2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENSG00000083838</t>
+          <t>ENSG00000162733</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Osteosarcoma</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0009807</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0000637</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4429,34 +4593,30 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1/769</t>
+          <t>1/87</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1/149</t>
+          <t>1/87</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0/8</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4471,38 +4631,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>PSME4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ENSG00000199516</t>
+          <t>ENSG00000068878</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Low-grade glioma/astrocytoma</t>
+          <t>Acute Lymphoblastic Leukemia</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MONDO_0016685</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>MONDO_0004967</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_0000220</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1/285</t>
+          <t>2/564</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -4512,17 +4676,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1/237</t>
+          <t>1/458</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.42%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0/51</t>
+          <t>0/73</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -4544,28 +4708,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SLC9A8</t>
+          <t>CSNK2A2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ENSG00000197818</t>
+          <t>ENSG00000070770</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Acute Myeloid Leukemia</t>
+          <t>Acute Lymphoblastic Leukemia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MONDO_0018874</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>MONDO_0004967</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EFO_0000222</t>
+          <t>EFO_0000220</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -4575,27 +4743,27 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1/186</t>
+          <t>2/564</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1/141</t>
+          <t>2/458</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0/40</t>
+          <t>0/73</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -4617,63 +4785,67 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CASC1</t>
+          <t>CSNK1E</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ENSG00000118307</t>
+          <t>ENSG00000213923</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ependymoma</t>
+          <t>Acute Myeloid Leukemia</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MONDO_0016698</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>MONDO_0018874</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EFO_1000028</t>
+          <t>EFO_0000222</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1/86</t>
+          <t>9/186</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1.16%</t>
+          <t>4.84%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1/69</t>
+          <t>7/141</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.45%</t>
+          <t>4.96%</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0/19</t>
+          <t>1/40</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.50%</t>
         </is>
       </c>
     </row>
@@ -4690,61 +4862,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SNORA70</t>
+          <t>ULK4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ENSG00000252505</t>
+          <t>ENSG00000168038</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Osteosarcoma</t>
+          <t>Atypical Teratoid Rhabdoid Tumor</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MONDO_0009807</t>
+          <t>MONDO_0020560</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EFO_0000637</t>
+          <t>EFO_1002008</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1/87</t>
+          <t>1/28</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>3.57%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1/87</t>
+          <t>1/24</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>4.17%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0/0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>0/6</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -4755,63 +4931,67 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>E4F1</t>
+          <t>ARID1B</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ENSG00000167967</t>
+          <t>ENSG00000049618</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Acute Myeloid Leukemia</t>
+          <t>High-grade glioma/astrocytoma</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MONDO_0018874</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>MONDO_0100342</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>EFO_0000222</t>
+          <t>EFO_0005543</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>4/186</t>
+          <t>2/84</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2.15%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4/141</t>
+          <t>0/51</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2.84%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0/40</t>
+          <t>2/33</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>6.06%</t>
         </is>
       </c>
     </row>
@@ -4824,28 +5004,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Metazoa_SRP</t>
+          <t>EWSR1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ENSG00000283389</t>
+          <t>ENSG00000182944</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Acute Myeloid Leukemia</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MONDO_0018874</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>MONDO_0005072</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>EFO_0000222</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -4855,27 +5039,27 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1/186</t>
+          <t>1/769</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1/141</t>
+          <t>1/149</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>0.67%</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0/40</t>
+          <t>0/8</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -4893,63 +5077,63 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>PTAFR</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ENSG00000202357</t>
+          <t>ENSG00000169403</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Acute Myeloid Leukemia</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
+          <t>MONDO_0018874</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0000222</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5/1009</t>
+          <t>1/186</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>6/358</t>
+          <t>1/141</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1.68%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1/10</t>
+          <t>0/40</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>10.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -4962,12 +5146,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>STAT4</t>
+          <t>MYC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ENSG00000138378</t>
+          <t>ENSG00000136997</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -4980,7 +5164,11 @@
           <t>MONDO_0018874</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>EFO_0000222</t>
@@ -4993,32 +5181,32 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>1/186</t>
+          <t>5/186</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>2.69%</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0/141</t>
+          <t>3/141</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0/40</t>
+          <t>1/40</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.50%</t>
         </is>
       </c>
     </row>
@@ -5031,58 +5219,62 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AC009720.1</t>
+          <t>BCL2A1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ENSG00000248172</t>
+          <t>ENSG00000140379</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Medulloblastoma</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MONDO_0007959</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>MONDO_0005072</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>EFO_0002939</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1/118</t>
+          <t>1/769</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0/105</t>
+          <t>1/149</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.67%</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>0/13</t>
+          <t>0/8</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -5341,41 +5533,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AC022217.3/Y_RNA--STK17B</t>
+          <t>TTC32--MYCN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>frameshift</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>MYCN</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gene2A</t>
+          <t>Gene1B</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Intergenic</t>
+          <t>Genic</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[], translocation</t>
+          <t>[INTRACHROMOSOMAL[chr2:3.95Mb]], inversion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>FALSE</t>
@@ -5384,67 +5572,67 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Kinase</t>
+          <t>CosmicCensus, Oncogene, TranscriptionFactor</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>ENSG00000207425</t>
+          <t>ENSG00000134323</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Acute Myeloid Leukemia</t>
+          <t>Neuroblastoma</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>MONDO_0018874</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
+          <t>MONDO_0005072</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>EFO_0000222</t>
+          <t>EFO_0000621</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>GMKF</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>1/186</t>
+          <t>1/344</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1/141</t>
+          <t>1/209</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>0.48%</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0/40</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
+          <t>0/0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5459,33 +5647,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NFE2L3--Y_RNA/C1GALT1</t>
+          <t>TSC2--BANP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>in-frame</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>TSC2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gene1B</t>
+          <t>Gene1A</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Intergenic</t>
+          <t>Genic</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[], inversion</t>
+          <t>[INTRACHROMOSOMAL[chr16:85.86Mb]], deletion</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -5497,15 +5685,19 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>TranscriptionFactor</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>TumorSuppressorGene, CosmicCensus, Oncogene</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>TumorSuppressorGene</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>ENSG00000202536</t>
+          <t>ENSG00000103197</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -5518,7 +5710,11 @@
           <t>MONDO_0004967</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>EFO_0000220</t>
@@ -5541,22 +5737,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>0/458</t>
+          <t>1/458</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
+          <t>0.22%</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>0/73</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>1/73</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>1.37%</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5769,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ZNF277--RNU6-604P/Y_RNA</t>
+          <t>ZC3HAV1--ABL2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5583,89 +5779,97 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>ZC3HAV1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gene2B</t>
+          <t>Gene1A</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Intergenic</t>
+          <t>Genic</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[], deletion</t>
+          <t>[INTERCHROMOSOMAL[chr7--chr1]], translocation</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>TranscriptionFactor</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Kinase, CosmicCensus, Oncogene, Kinase</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>ENSG00000207092</t>
+          <t>ENSG00000105939</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Acute Lymphoblastic Leukemia</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
+          <t>MONDO_0004967</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0000220</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1/1009</t>
+          <t>1/564</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.18%</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1/358</t>
+          <t>1/458</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>0/73</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -5687,17 +5891,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ACSL3--Y_RNA/SGPP2</t>
+          <t>MKNK2--DOT1L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>frameshift</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>DOT1L</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -5708,15 +5912,19 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Intergenic</t>
+          <t>Genic</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[], duplication</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>[INTRACHROMOSOMAL[chr19:0.11Mb]], inversion</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
@@ -5725,66 +5933,74 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>CosmicCensus, Oncogene</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>Kinase</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>TranscriptionFactor</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>ENSG00000200834</t>
+          <t>ENSG00000104885</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Acute Lymphoblastic Leukemia</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
+          <t>MONDO_0004967</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0000220</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>TARGET</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1/1009</t>
+          <t>34/564</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>6.03%</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1/358</t>
+          <t>18/458</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>3.93%</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0/10</t>
+          <t>14/73</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>19.18%</t>
         </is>
       </c>
     </row>
@@ -5801,25 +6017,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MLF2--H3F3B</t>
+          <t>MLLT10--PICALM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>in-frame</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>H3F3B</t>
+          <t>MLLT10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gene1B</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>Gene1A</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TCGAFusion</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>Genic</t>
@@ -5827,7 +6047,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[INTERCHROMOSOMAL[chr12--chr17]], translocation</t>
+          <t>[YOSHIHARA_TCGA, chimerdb_pubmed, CCLE, ChimerSeq, Klijn_CellLines, INTERCHROMOSOMAL[chr10--chr11]]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -5837,17 +6057,21 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CosmicCensus, Oncogene</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>CosmicCensus</t>
+          <t>CosmicCensus, Oncogene</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>ENSG00000132475</t>
+          <t>ENSG00000078403</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -5860,7 +6084,11 @@
           <t>MONDO_0018874</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr">
         <is>
           <t>EFO_0000222</t>
@@ -5873,32 +6101,32 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1/186</t>
+          <t>2/186</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0.54%</t>
+          <t>1.08%</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1/141</t>
+          <t>2/141</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t>1.42%</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0/40</t>
+          <t>1/40</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>2.50%</t>
         </is>
       </c>
     </row>
@@ -5911,7 +6139,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Y_RNA/SHANK3--PTMA</t>
+          <t>LINC00444--CTNNB1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -5921,23 +6149,23 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>CTNNB1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gene1A</t>
+          <t>Gene1B</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Intergenic</t>
+          <t>Genic</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[], translocation</t>
+          <t>[INTERCHROMOSOMAL[chr13--chr3]], translocation</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -5950,30 +6178,34 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Oncogene</t>
+          <t>CosmicCensus, Oncogene</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>ENSG00000207401</t>
+          <t>ENSG00000168036</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Acute Lymphoblastic Leukemia</t>
+          <t>Acute Myeloid Leukemia</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>MONDO_0004967</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
+          <t>MONDO_0018874</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>EFO_0000220</t>
+          <t>EFO_0000222</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -5983,27 +6215,27 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2/564</t>
+          <t>1/186</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2/458</t>
+          <t>1/141</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0/73</t>
+          <t>0/40</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -6021,17 +6253,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SSBP1--ZNF516</t>
+          <t>QKI--ARID1B</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>frameshift</t>
+          <t>other</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ZNF516</t>
+          <t>ARID1B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -6047,7 +6279,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[INTERCHROMOSOMAL[chr7--chr18]], translocation</t>
+          <t>[INTRACHROMOSOMAL[chr6:6.20Mb]], duplication</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -6057,63 +6289,71 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>TumorSuppressorGene, CosmicCensus</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>TranscriptionFactor</t>
+          <t>CosmicCensus, Oncogene</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>ENSG00000101493</t>
+          <t>ENSG00000049618</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Ependymoma</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
+          <t>MONDO_0016698</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_1000028</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1/769</t>
+          <t>1/86</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>1.16%</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1/149</t>
+          <t>1/69</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>1.45%</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0/8</t>
+          <t>0/19</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -6131,22 +6371,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PDXK--ITGAX</t>
+          <t>UQCRC2--GATAD2A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>frameshift</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ITGAX</t>
+          <t>UQCRC2</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gene1B</t>
+          <t>Gene1A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -6157,7 +6397,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[INTERCHROMOSOMAL[chr21--chr16]], translocation</t>
+          <t>[INTERCHROMOSOMAL[chr16--chr19]], translocation</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -6174,14 +6414,14 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Oncogene</t>
+          <t>TranscriptionFactor</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>ENSG00000140678</t>
+          <t>ENSG00000140740</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -6245,17 +6485,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RUNX1--RUNX1</t>
+          <t>SBNO2--KLF16</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>frameshift</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RUNX1</t>
+          <t>KLF16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -6266,12 +6506,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Intragenic</t>
+          <t>Genic</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[SELFIE, [\ChimerSeq\, \chimerdb_pubmed\], INTRACHROMOSOMAL[chr21:1.22Mb]], inversion/5'-5'</t>
+          <t>[INTRACHROMOSOMAL[chr19:0.68Mb]], duplication</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -6281,21 +6521,17 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>TumorSuppressorGene, CosmicCensus, Oncogene, TranscriptionFactor</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>TumorSuppressorGene, CosmicCensus, Oncogene, TranscriptionFactor</t>
+          <t>TranscriptionFactor</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>ENSG00000159216</t>
+          <t>ENSG00000129911</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -6321,22 +6557,22 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1/564</t>
+          <t>2/564</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0.18%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1/458</t>
+          <t>2/458</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -6359,7 +6595,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ZNF277--RNU6-604P/Y_RNA</t>
+          <t>NUP205--LINC01510/MET</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -6369,7 +6605,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Y_RNA</t>
+          <t>MET</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -6385,7 +6621,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[], deletion</t>
+          <t>[], duplication</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -6395,68 +6631,72 @@
           <t>FALSE</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>TranscriptionFactor</t>
-        </is>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Kinase, CosmicCensus, Oncogene, Kinase</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>ENSG00000201548</t>
+          <t>ENSG00000105976</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Neuroblastoma</t>
+          <t>Malignant peripheral nerve sheath tumor</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>MONDO_0005072</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
+          <t>MONDO_0018078</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>EFO_0000621</t>
+          <t>EFO_0000760</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>TARGET</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1/769</t>
+          <t>1/4</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>25.00%</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1/149</t>
+          <t>0/3</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>0.67%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0/8</t>
+          <t>1/1</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -6705,58 +6945,58 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SNORA72</t>
+          <t>HEBP2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ENSG00000201944</t>
+          <t>ENSG00000051620</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Choroid plexus papilloma</t>
+          <t>Ewing sarcoma</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EFO_1000177</t>
+          <t>EFO_0000174</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MONDO_0009837</t>
+          <t>MONDO_0012817</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>3.44142857142857</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.5136430197722</t>
+          <t>1.13461342273376</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.106225118929622</t>
+          <t>-0.848304264432127</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Highest expressed 25%</t>
+          <t>Expression between upper quartile and median</t>
         </is>
       </c>
     </row>
@@ -6773,13 +7013,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PTPDC1</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ENSG00000158079</t>
+          <t>ENSG00000137992</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6809,22 +7049,22 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.730769230769231</t>
+          <t>2.59230769230769</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.314071688697064</t>
+          <t>0.333895039549703</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.998085100418696</t>
+          <t>0.241189553386185</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Expression between upper quartile and median</t>
+          <t>Highest expressed 25%</t>
         </is>
       </c>
     </row>
@@ -6841,53 +7081,53 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C17orf50</t>
+          <t>LINC01072</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ENSG00000270806</t>
+          <t>ENSG00000236076</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dysembryoplastic neuroepithelial tumor</t>
+          <t>Atypical Teratoid Rhabdoid Tumor</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>EFO_0005551</t>
+          <t>EFO_1002008</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MONDO_0005505</t>
+          <t>MONDO_0020560</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0305505046330389</t>
+          <t>0.00896854406292881</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.581155630000481</t>
+          <t>-0.345508658524026</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -6909,53 +7149,57 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HEBP2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>GPNMB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ENSG00000051620</t>
+          <t>ENSG00000136235</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CNS Embryonal tumor</t>
+          <t>Craniopharyngioma</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EFO_0005784</t>
+          <t>EFO_1000209</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MONDO_0018843</t>
+          <t>MONDO_0002787</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9.82111111111111</t>
+          <t>54.6718181818182</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.06523060789053</t>
+          <t>66.8554474696239</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.125737666043627</t>
+          <t>0.483163938216923</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -6977,33 +7221,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HIST1H2AH</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>KMT2A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENSG00000274997</t>
+          <t>ENSG00000118058</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Diffuse midline glioma</t>
+          <t>Meningioma</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>EFO_1000026</t>
+          <t>EFO_0003851</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MONDO_0006033</t>
+          <t>MONDO_0016642</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -7013,17 +7261,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15.3421276595745</t>
+          <t>11.0007142857143</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>29.2641109727739</t>
+          <t>3.8354489543362</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.261191891480098</t>
+          <t>-0.736838327203635</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7041,53 +7289,57 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ZNF768</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>ACVR1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENSG00000169957</t>
+          <t>ENSG00000115170</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ewing sarcoma</t>
+          <t>Schwannoma</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EFO_0000174</t>
+          <t>EFO_0000693</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MONDO_0012817</t>
+          <t>MONDO_0002546</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6.18571428571429</t>
+          <t>5.33142857142857</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.94536078181621</t>
+          <t>1.43093222514801</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-0.634300343301176</t>
+          <t>-0.484685606470907</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7105,33 +7357,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RPL7AP69</t>
+          <t>SFTPD-AS1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ENSG00000268483</t>
+          <t>ENSG00000273372</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acute Myeloid Leukemia</t>
+          <t>Clear cell sarcoma of the kidney</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>EFO_0000222</t>
+          <t>EFO_0000350</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MONDO_0018874</t>
+          <t>MONDO_0005006</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -7141,17 +7393,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.00141843971631206</t>
+          <t>0.00307692307692308</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.0103910373663136</t>
+          <t>0.00480384461415261</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.179020643110753</t>
+          <t>-0.557816514911059</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7169,33 +7421,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SNORA66</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>PDK1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ENSG00000207523</t>
+          <t>ENSG00000152256</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atypical Teratoid Rhabdoid Tumor</t>
+          <t>Medulloblastoma</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>EFO_1002008</t>
+          <t>EFO_0002939</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MONDO_0020560</t>
+          <t>MONDO_0007959</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -7205,22 +7461,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>130.689166666667</t>
+          <t>3.02057142857143</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>171.156012937007</t>
+          <t>1.8005409596154</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2.22737879472818</t>
+          <t>-0.370861121178595</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Highest expressed 25%</t>
+          <t>Expression between upper quartile and median</t>
         </is>
       </c>
     </row>
@@ -7233,33 +7489,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RNA5SP145</t>
+          <t>FLNB-AS1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENSG00000199994</t>
+          <t>ENSG00000244161</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>CNS Embryonal tumor</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_0005784</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0018843</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -7269,22 +7525,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.365882352941176</t>
+          <t>0.0522222222222222</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.25011867671928</t>
+          <t>0.0818195847242238</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.0686925627528134</t>
+          <t>-0.142980562835015</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Expression between upper quartile and median</t>
+          <t>Expression between median and lower quartile</t>
         </is>
       </c>
     </row>
@@ -7297,58 +7553,58 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RPL13AP23</t>
+          <t>LINC01356</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENSG00000242990</t>
+          <t>ENSG00000215866</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CNS Embryonal tumor</t>
+          <t>Diffuse midline glioma</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>EFO_0005784</t>
+          <t>EFO_1000026</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MONDO_0018843</t>
+          <t>MONDO_0006033</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.0122222222222222</t>
+          <t>1.04212765957447</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.0299072640748773</t>
+          <t>1.0278871029409</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.174810520064372</t>
+          <t>0.880120576865301</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Expression between median and lower quartile</t>
+          <t>Expression between upper quartile and median</t>
         </is>
       </c>
     </row>
@@ -7527,58 +7783,58 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SNORA72</t>
+          <t>HEBP2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ENSG00000201944</t>
+          <t>ENSG00000051620</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Choroid plexus papilloma</t>
+          <t>Ewing sarcoma</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>EFO_1000177</t>
+          <t>EFO_0000174</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MONDO_0009837</t>
+          <t>MONDO_0012817</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>8.578</t>
+          <t>3.44142857142857</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.5136430197722</t>
+          <t>1.13461342273376</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.00799389005817886</t>
+          <t>-0.020121644821659</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Highest expressed 25%</t>
+          <t>Expression between upper quartile and median</t>
         </is>
       </c>
     </row>
@@ -7595,13 +7851,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PTPDC1</t>
+          <t>DBT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ENSG00000158079</t>
+          <t>ENSG00000137992</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -7631,22 +7887,22 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.730769230769231</t>
+          <t>2.59230769230769</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.314071688697064</t>
+          <t>0.333895039549703</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-0.0157081752555204</t>
+          <t>-0.0140007445897629</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Expression between upper quartile and median</t>
+          <t>Highest expressed 25%</t>
         </is>
       </c>
     </row>
@@ -7663,53 +7919,53 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C17orf50</t>
+          <t>LINC01072</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ENSG00000270806</t>
+          <t>ENSG00000236076</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dysembryoplastic neuroepithelial tumor</t>
+          <t>Atypical Teratoid Rhabdoid Tumor</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>EFO_0005551</t>
+          <t>EFO_1002008</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MONDO_0005505</t>
+          <t>MONDO_0020560</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.0305505046330389</t>
+          <t>0.00896854406292881</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>-0.0128645814835962</t>
+          <t>-0.0206287338105831</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -7731,53 +7987,57 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HEBP2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>GPNMB</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ENSG00000051620</t>
+          <t>ENSG00000136235</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CNS Embryonal tumor</t>
+          <t>Craniopharyngioma</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EFO_0005784</t>
+          <t>EFO_1000209</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MONDO_0018843</t>
+          <t>MONDO_0002787</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>9.82111111111111</t>
+          <t>54.6718181818182</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.06523060789053</t>
+          <t>66.8554474696239</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-0.0200017165742368</t>
+          <t>0.0313580568137222</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -7799,33 +8059,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HIST1H2AH</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>KMT2A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENSG00000274997</t>
+          <t>ENSG00000118058</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Diffuse midline glioma</t>
+          <t>Meningioma</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>EFO_1000026</t>
+          <t>EFO_0003851</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>MONDO_0006033</t>
+          <t>MONDO_0016642</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -7835,17 +8099,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15.3421276595745</t>
+          <t>11.0007142857143</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>29.2641109727739</t>
+          <t>3.8354489543362</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-0.0174401952368296</t>
+          <t>-0.00602761049650378</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -7863,53 +8127,57 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ZNF768</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>ACVR1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ENSG00000169957</t>
+          <t>ENSG00000115170</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ewing sarcoma</t>
+          <t>Schwannoma</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EFO_0000174</t>
+          <t>EFO_0000693</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>MONDO_0012817</t>
+          <t>MONDO_0002546</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>PBTA</t>
+          <t>all_cohorts</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6.18571428571429</t>
+          <t>5.33142857142857</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.94536078181621</t>
+          <t>1.43093222514801</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-0.0163169626103266</t>
+          <t>-0.010609489274465</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -7927,33 +8195,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RPL7AP69</t>
+          <t>SFTPD-AS1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ENSG00000268483</t>
+          <t>ENSG00000273372</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Acute Myeloid Leukemia</t>
+          <t>Clear cell sarcoma of the kidney</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>EFO_0000222</t>
+          <t>EFO_0000350</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>MONDO_0018874</t>
+          <t>MONDO_0005006</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -7963,17 +8231,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.00141843971631206</t>
+          <t>0.00307692307692308</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.0103910373663136</t>
+          <t>0.00480384461415261</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-0.0502907475358494</t>
+          <t>-0.0163756254248619</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -7991,33 +8259,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SNORA66</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>PDK1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ENSG00000207523</t>
+          <t>ENSG00000152256</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Atypical Teratoid Rhabdoid Tumor</t>
+          <t>Medulloblastoma</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>EFO_1002008</t>
+          <t>EFO_0002939</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>MONDO_0020560</t>
+          <t>MONDO_0007959</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -8027,22 +8299,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>130.689166666667</t>
+          <t>3.02057142857143</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>171.156012937007</t>
+          <t>1.8005409596154</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.134675179680307</t>
+          <t>-0.0163531880128668</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Highest expressed 25%</t>
+          <t>Expression between upper quartile and median</t>
         </is>
       </c>
     </row>
@@ -8055,33 +8327,33 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RNA5SP145</t>
+          <t>FLNB-AS1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ENSG00000199994</t>
+          <t>ENSG00000244161</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>High-grade glioma/astrocytoma</t>
+          <t>CNS Embryonal tumor</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>EFO_0005543</t>
+          <t>EFO_0005784</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>MONDO_0100342</t>
+          <t>MONDO_0018843</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -8091,22 +8363,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.365882352941176</t>
+          <t>0.0522222222222222</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.25011867671928</t>
+          <t>0.0818195847242238</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>-0.0276415824779483</t>
+          <t>-0.0377770252047889</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Expression between upper quartile and median</t>
+          <t>Expression between median and lower quartile</t>
         </is>
       </c>
     </row>
@@ -8119,58 +8391,58 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RPL13AP23</t>
+          <t>LINC01356</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ENSG00000242990</t>
+          <t>ENSG00000215866</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>CNS Embryonal tumor</t>
+          <t>Diffuse midline glioma</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>EFO_0005784</t>
+          <t>EFO_1000026</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>MONDO_0018843</t>
+          <t>MONDO_0006033</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>all_cohorts</t>
+          <t>PBTA</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.0122222222222222</t>
+          <t>1.04212765957447</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.0299072640748773</t>
+          <t>1.0278871029409</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-0.0378498085431306</t>
+          <t>-0.0505080567060246</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Expression between median and lower quartile</t>
+          <t>Expression between upper quartile and median</t>
         </is>
       </c>
     </row>

--- a/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
+++ b/analyses/pedot-table-column-display-order-name/results/pedot-table-column-display-order-name.xlsx
@@ -809,7 +809,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Please do not change the order or values of the first two columns.</t>
+          <t>Delete one or more columns to advise PedOT website not to display the deleted columns.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Please do not change the values of the last row.</t>
+          <t>Please do not change the order or values of the first two columns.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1033,7 +1033,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Please do not delete the first or the second column.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Sample row #6</t>
@@ -1142,7 +1146,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Please do not change the values of the last row.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sample row #7</t>
@@ -1251,7 +1259,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Please do not delete any row.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sample row #8</t>
@@ -7213,7 +7225,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Please do not change the order or values of the first two columns.</t>
+          <t>Delete one or more columns to advise PedOT website not to display the deleted columns.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7356,291 +7368,299 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Please do not change the order or values of the first two columns.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sample row #5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BRIP1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chr17_61683414_C_T</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>p.G1211D</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PBTA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>High-grade glioma/astrocytoma</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>EFO_0005543</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>MONDO_0100342</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>novel</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>tolerated_low_confidence(1)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>benign(0.009)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Missense_Mutation</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>BRCA1 interacting helicase 1</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>NP_114432.2</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>ENSG00000136492</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>ENSP00000259008</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0/30</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>1/21</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>TumorSuppressorGene</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Please do not delete the first or the second column.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sample row #6</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PSMC5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>chr17_63831748_T_C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>p.Y369H</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Relevant Molecular Target (RMTL version 1.0)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PBTA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>High-grade glioma/astrocytoma</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>EFO_0005543</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>MONDO_0100342</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>novel</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>deleterious(0)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>possibly_damaging(0.497)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Missense_Mutation</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>SNP</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>proteasome 26S subunit, ATPase 5</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>NP_001186092.1,NP_002796.4</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>ENSG00000087191</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>ENSP00000310572</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>1/50</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>1/30</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>3.33%</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0/21</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Please do not change the values of the last row.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sample row #5</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BRIP1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>chr17_61683414_C_T</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>p.G1211D</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Relevant Molecular Target (RMTL version 1.0)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>PBTA</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>High-grade glioma/astrocytoma</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>EFO_0005543</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>MONDO_0100342</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>tolerated_low_confidence(1)</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>benign(0.009)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Missense_Mutation</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>SNP</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>BRCA1 interacting helicase 1</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>NP_114432.2</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>ENSG00000136492</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>ENSP00000259008</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0/30</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>1/21</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>4.76%</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>TumorSuppressorGene</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sample row #6</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PSMC5</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>chr17_63831748_T_C</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>p.Y369H</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Relevant Molecular Target (RMTL version 1.0)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>PBTA</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>High-grade glioma/astrocytoma</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>EFO_0005543</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>MONDO_0100342</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>novel</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>deleterious(0)</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>possibly_damaging(0.497)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Missense_Mutation</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>SNP</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>proteasome 26S subunit, ATPase 5</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>NP_001186092.1,NP_002796.4</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>ENSG00000087191</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>ENSP00000310572</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1/50</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>2.00%</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>1/30</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>3.33%</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0/21</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sample row #7</t>
@@ -7775,7 +7795,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Please do not delete any row.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sample row #8</t>
@@ -15417,7 +15441,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Please do not change the order or values of the first two columns.</t>
+          <t>Delete one or more columns to advise PedOT website not to display the deleted columns.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -15507,7 +15531,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Please do not change the values of the last row.</t>
+          <t>Please do not change the order or values of the first two columns.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -15595,7 +15619,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Please do not delete the first or the second column.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Sample row #6</t>
@@ -15681,7 +15709,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Please do not change the values of the last row.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sample row #7</t>
@@ -15763,7 +15795,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Please do not delete any row.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sample row #8</t>
@@ -20747,7 +20783,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Please do not change the order or values of the first two columns.</t>
+          <t>Delete one or more columns to advise PedOT website not to display the deleted columns.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -20824,7 +20860,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Please do not change the values of the last row.</t>
+          <t>Please do not change the order or values of the first two columns.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -20895,7 +20931,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Please do not delete the first or the second column.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Sample row #6</t>
@@ -20968,7 +21008,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Please do not change the values of the last row.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sample row #7</t>
@@ -21037,7 +21081,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Please do not delete any row.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sample row #8</t>
@@ -25383,7 +25431,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Please do not change the order or values of the first two columns.</t>
+          <t>Delete one or more columns to advise PedOT website not to display the deleted columns.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -25505,7 +25553,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Please do not change the values of the last row.</t>
+          <t>Please do not change the order or values of the first two columns.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -25625,7 +25673,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Please do not delete the first or the second column.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Sample row #6</t>
@@ -25743,7 +25795,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Please do not change the values of the last row.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sample row #7</t>
@@ -25861,7 +25917,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Please do not delete any row.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sample row #8</t>
@@ -32337,7 +32397,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Please do not change the order or values of the first two columns.</t>
+          <t>Delete one or more columns to advise PedOT website not to display the deleted columns.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -32405,7 +32465,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Please do not change the values of the last row.</t>
+          <t>Please do not change the order or values of the first two columns.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -32475,7 +32535,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Please do not delete the first or the second column.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Sample row #6</t>
@@ -32539,7 +32603,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Please do not change the values of the last row.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sample row #7</t>
@@ -32603,7 +32671,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Please do not delete any row.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sample row #8</t>
@@ -36523,7 +36595,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Please do not change the order or values of the first two columns.</t>
+          <t>Delete one or more columns to advise PedOT website not to display the deleted columns.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -36591,7 +36663,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Please do not change the values of the last row.</t>
+          <t>Please do not change the order or values of the first two columns.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -36661,7 +36733,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Please do not delete the first or the second column.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Sample row #6</t>
@@ -36725,7 +36801,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Please do not change the values of the last row.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Sample row #7</t>
@@ -36789,7 +36869,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Please do not delete any row.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Sample row #8</t>
